--- a/GST  and Bank Statement Details.xlsx
+++ b/GST  and Bank Statement Details.xlsx
@@ -860,10 +860,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E22"/>
+  <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -872,8 +872,8 @@
     <col min="2" max="2" width="22.21875" style="3" customWidth="1"/>
     <col min="3" max="4" width="16.109375" style="3" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="27.77734375" style="3" customWidth="1"/>
-    <col min="6" max="6" width="11.5546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="8.88671875" style="3"/>
+    <col min="6" max="7" width="11.5546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="8.88671875" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="42" x14ac:dyDescent="0.3">
@@ -1009,97 +1009,83 @@
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" s="5"/>
-      <c r="B13" s="5"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" s="5"/>
-      <c r="B14" s="5"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-    </row>
-    <row r="15" spans="1:5" ht="21" x14ac:dyDescent="0.3">
-      <c r="A15" s="6" t="s">
+    <row r="13" spans="1:5" ht="21" x14ac:dyDescent="0.3">
+      <c r="A13" s="6" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
+    <row r="14" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B14" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="C14" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="D14" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E16" s="2" t="s">
+      <c r="E14" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" s="4">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" s="4">
         <f>'[1]Jan-24 to Mar-24'!$D$106</f>
         <v>4877248</v>
       </c>
-      <c r="B17" s="4"/>
-      <c r="C17" s="4">
+      <c r="B15" s="4"/>
+      <c r="C15" s="4">
         <f>'[1]Jan-24 to Mar-24'!$F$106</f>
         <v>442191.25</v>
       </c>
-      <c r="D17" s="4">
+      <c r="D15" s="4">
         <f>'[1]Jan-24 to Mar-24'!$G$106</f>
         <v>442191.25</v>
       </c>
-      <c r="E17" s="4">
+      <c r="E15" s="4">
         <f>'[1]Jan-24 to Mar-24'!$H$106</f>
         <v>5761632.5</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="42" x14ac:dyDescent="0.3">
-      <c r="A21" s="7" t="s">
+    <row r="18" spans="1:5" ht="42" x14ac:dyDescent="0.3">
+      <c r="A18" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B21" s="7" t="s">
+      <c r="B18" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C21" s="7" t="s">
+      <c r="C18" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="D21" s="7" t="s">
+      <c r="D18" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="E21" s="8" t="s">
+      <c r="E18" s="8" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="21" x14ac:dyDescent="0.3">
-      <c r="A22" s="9">
-        <f>A3+A7+A11+A17</f>
+    <row r="19" spans="1:5" ht="21" x14ac:dyDescent="0.3">
+      <c r="A19" s="9">
+        <f>A3+A7+A11+A15</f>
         <v>11564370</v>
       </c>
-      <c r="B22" s="9">
+      <c r="B19" s="9">
         <f>B11</f>
         <v>2379.6</v>
       </c>
-      <c r="C22" s="9">
-        <f>C3+C7+C11+C17</f>
+      <c r="C19" s="9">
+        <f>C3+C7+C11+C15</f>
         <v>1042843.24</v>
       </c>
-      <c r="D22" s="9">
-        <f>D3+D7+D11+D17</f>
+      <c r="D19" s="9">
+        <f>D3+D7+D11+D15</f>
         <v>1042843.24</v>
       </c>
-      <c r="E22" s="9">
-        <f>E3+E7+E11+E17</f>
+      <c r="E19" s="9">
+        <f>E3+E7+E11+E15</f>
         <v>13652438.5</v>
       </c>
     </row>
